--- a/분석_설계/url 생성_게시판.xlsx
+++ b/분석_설계/url 생성_게시판.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\09_Team_Project\02_산출물관리_게시판\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayj6\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F939BCB0-7660-4A5E-9748-E580A9D4D30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39175CD6-ECF7-4EA7-8D49-2C74565516FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E35916C1-1133-47A8-B3A9-F182D8CEFC85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E35916C1-1133-47A8-B3A9-F182D8CEFC85}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
   <si>
     <t>주문상품정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -548,6 +548,22 @@
   </si>
   <si>
     <t>http://localhost:8080/dept/{dept_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice-update/{notice_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice-add/{notice_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 등록,삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1733,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E882B979-10F0-4749-B0EF-89A2058ED19C}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2044,10 +2060,20 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
+      <c r="A38" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
+      <c r="A39" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
@@ -2109,8 +2135,10 @@
     <hyperlink ref="F28" r:id="rId21" xr:uid="{4BC9E310-5EB8-49C4-9315-0AE4CFF1BBFB}"/>
     <hyperlink ref="F26" r:id="rId22" xr:uid="{71D7EA7B-BAEE-4F8A-9BB2-BAE2DE03D46B}"/>
     <hyperlink ref="F27" r:id="rId23" xr:uid="{6D9F1827-EA42-4978-826D-E6EB78993A59}"/>
+    <hyperlink ref="B38" r:id="rId24" xr:uid="{42DCF3AB-37F1-435C-80CB-5C1608B15EF3}"/>
+    <hyperlink ref="B39" r:id="rId25" xr:uid="{336F905D-546D-407F-AD5A-AB93D4736DEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>